--- a/documentacao/backlog-Grupo-01.xlsx
+++ b/documentacao/backlog-Grupo-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi-sprint-1\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb9df5b836737798/Área de Trabalho/sptech - 1° semestre/{2ª SPRINT}/projeto-pi-sprint-1/documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A43B0-AE25-4F8E-AAB5-EA991842DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B12A43B0-AE25-4F8E-AAB5-EA991842DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA1183F-8913-491D-A2E1-86E332C8560F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7393E741-8B86-48EF-BE07-B24862E557C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +412,14 @@
       <color rgb="FF166C6A"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -663,9 +671,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,6 +678,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -961,7 +969,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1020,7 +1028,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1062,7 +1070,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1683,15 +1691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>273604</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16877</xdr:rowOff>
+      <xdr:colOff>527604</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>613777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>301731</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>187687</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2038,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E230A6-6E41-41E9-834E-469679204ECD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,7 +2059,7 @@
     <col min="5" max="5" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="2" customWidth="1"/>
@@ -2063,18 +2071,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2115,10 +2123,10 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="42" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="4"/>
@@ -3237,14 +3245,24 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="M4" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b51fd1e8b3b325edc2e3e5af1016e876">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f375ab854fe714e6d25c0e520c080200" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -3420,15 +3438,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3436,6 +3445,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA33053E-EA8F-437C-9F67-47A4F0BC10D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3449,14 +3466,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085FFE83-7874-4863-A9C7-9C338481B563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
